--- a/src/store/modules/API.xlsx
+++ b/src/store/modules/API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longzonal/Documents/Docs/MSale/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\PC\Desktop\Source\tpb\tpf-msale-ui\src\store\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D58AE358-4B87-CD4B-93F8-05CF83A702DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6DCC5B-08EF-4BBF-B9D6-5F19360DBE3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="504" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>API NEW</t>
   </si>
@@ -61,47 +61,257 @@
     <t>Quản lý người dùng</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>BaseURL</t>
+  </si>
+  <si>
+    <t>https://fico-portaltest.tpb.vn/newmsales/api/</t>
+  </si>
+  <si>
+    <t>auth/login</t>
+  </si>
+  <si>
+    <t>Params, request</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>{"username":"testlead","password":"Fico123!"}</t>
+  </si>
+  <si>
+    <t>username: String, password: String</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>user/getProfile?username=testlead</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>username: String</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 06:32:36","success":true,"data":{"fullName":"testlead","email":"test@gmail.com","dsaCode":"DS000762","role":{"id":22,"name":"IT_ADMIN","code":"ITA","level":5,"permissions":[],"multipleTeamUnit":true}},"message":"OK","code":200}</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Get Profile User</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Get Dashboard</t>
+  </si>
+  <si>
+    <t>dashboard?limit=20&amp;page=0</t>
+  </si>
+  <si>
+    <t>user/list</t>
+  </si>
+  <si>
+    <t>Get List User</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 07:00:19","success":true,"data":[{"id":322,"name":"Đào Thị Thúy Diễm","username":"DS2704891","identify":"372013207","doj":null,"dob":null,"code":"DS2704891","phone":"0943158474","email":null,"role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[],"gender":null,"address":null,"branchName":null,"active":true,"teamSales":[]},{"id":321,"name":null,"username":"andt2","identify":"999999999999","doj":null,"dob":null,"code":null,"phone":"0999999999","email":null,"role":{"id":4,"name":"AREA_SALE_MANAGER","code":"HEAD","level":4,"permissions":[],"multipleTeamUnit":true},"roleName":"FS-Area Sales Manager","branches":[],"gender":null,"address":null,"branchName":null,"active":true,"teamSales":[]},{"id":320,"name":null,"username":"rootIT2","identify":"999999999999","doj":null,"dob":null,"code":null,"phone":"0999999999","email":null,"role":{"id":22,"name":"IT_ADMIN","code":"ITA","level":5,"permissions":[],"multipleTeamUnit":true},"roleName":"FS-IT Admin","branches":[],"gender":null,"address":null,"branchName":null,"active":true,"teamSales":[]},{"id":319,"name":null,"username":"rootIT","identify":"999999999999","doj":null,"dob":null,"code":null,"phone":"0999999999","email":null,"role":{"id":22,"name":"IT_ADMIN","code":"ITA","level":5,"permissions":[],"multipleTeamUnit":true},"roleName":"FS-IT Admin","branches":[],"gender":null,"address":null,"branchName":null,"active":true,"teamSales":[]},{"id":318,"name":"Trịnh Trường Long","username":"DS2710963","identify":"371967920","doj":null,"dob":null,"code":"DS2710963","phone":"0382661452","email":null,"role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[],"gender":null,"address":null,"branchName":null,"active":true,"teamSales":[]},{"id":317,"name":"Nguyễn Minh Phương","username":null,"identify":"363704845","doj":null,"dob":null,"code":"DS0315612","phone":null,"email":null,"role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[],"gender":null,"address":null,"branchName":null,"active":true,"teamSales":[]},{"id":316,"name":"Nguyễn Ngọc Khuyên","username":null,"identify":"363976491","doj":null,"dob":null,"code":"DS0313735","phone":null,"email":null,"role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[],"gender":null,"address":null,"branchName":null,"active":true,"teamSales":[]},{"id":315,"name":"Nguyễn Văn Kịp Liệt","username":null,"identify":"086086000160","doj":null,"dob":null,"code":"DS0313787","phone":null,"email":null,"role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[],"gender":null,"address":null,"branchName":null,"active":true,"teamSales":[]}],"message":"OK","code":200,"total":33,"page":0}</t>
+  </si>
+  <si>
+    <t>Get User Detail</t>
+  </si>
+  <si>
+    <t>user/322</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 07:32:37","success":true,"data":{"id":322,"name":"Đào Thị Thúy Diễm","username":"DS2704891","identify":"372013207","doj":null,"dob":null,"code":"DS2704891","phone":"0943158474","email":null,"role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":null,"branches":[],"gender":null,"address":null,"branchName":"KGG1-DS1-FICO4","active":false,"teamSales":[]},"message":"OK","code":200}</t>
+  </si>
+  <si>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>user/register</t>
+  </si>
+  <si>
+    <t>{"name":"Trần Thị Thúy An","username":"anttt5","email":"anttt5@tpb.com.vn","phone":"0944158316","password":"an123456","identify":2725837060,"code":"abc","gender":"M","doj":"2022-04-28","address":"780 NGUYEN DUY STREET, WARD 12, DISTRICT 8,","branches":["BAN"],"teamIds":[121],"roleId":5,"dob":"1996-06-26","role":5}</t>
+  </si>
+  <si>
+    <t>Update Status User</t>
+  </si>
+  <si>
+    <t>user/update-status</t>
+  </si>
+  <si>
+    <t>{"status":0,"id":315}</t>
+  </si>
+  <si>
     <t>Đăng ký</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>BaseURL</t>
-  </si>
-  <si>
-    <t>https://fico-portaltest.tpb.vn/newmsales/api/</t>
-  </si>
-  <si>
-    <t>auth/login</t>
-  </si>
-  <si>
-    <t>Params, request</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>{"username":"testlead","password":"Fico123!"}</t>
-  </si>
-  <si>
-    <t>username: String, password: String</t>
-  </si>
-  <si>
-    <t>Response</t>
+    <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Quản lý Slide</t>
+  </si>
+  <si>
+    <t>Gửi tin nhắn</t>
+  </si>
+  <si>
+    <t>limit/page</t>
+  </si>
+  <si>
+    <t>Giám sát vị trí</t>
+  </si>
+  <si>
+    <t>Quản lý hồ sơ</t>
+  </si>
+  <si>
+    <t>Chi tiết hồ sơ</t>
+  </si>
+  <si>
+    <t>Quản lý thiết bị di động</t>
+  </si>
+  <si>
+    <t>activity/histories?limit=20</t>
+  </si>
+  <si>
+    <t>limit=20</t>
+  </si>
+  <si>
+    <t>Get History</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:10:17","success":true,"data":[{"id":1436,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-28 11:22:07","createdAt":null,"type":"MSG","title":"41214","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"1212","sender":null,"read":false},{"id":1435,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-28 11:09:29","createdAt":null,"type":"MSG","title":"412412421","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"4124124","sender":null,"read":false},{"id":1434,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-28 11:09:02","createdAt":null,"type":"MSG","title":"Dat test send message","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"12312312312","sender":null,"read":false},{"id":1433,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-28 10:37:42","createdAt":null,"type":"MSG","title":"Dat Test Send Message 1","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"Dat Test Send Message 1","sender":null,"read":false},{"id":1431,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-28 10:33:20","createdAt":null,"type":"MSG","title":"14124124412412","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"124213124","sender":null,"read":false},{"id":1429,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-27 17:33:46","createdAt":null,"type":"MSG","title":"12312","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"4124124","sender":null,"read":false},{"id":1427,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-27 17:29:20","createdAt":null,"type":"MSG","title":"123121234312","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"4124214123421","sender":null,"read":false},{"id":1425,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-27 17:16:15","createdAt":null,"type":"MSG","title":"1231233213","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"312312321","sender":null,"read":false},{"id":1423,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-27 17:09:25","createdAt":null,"type":"MSG","title":"ádasdadsd","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"dấdsadasdas","sender":null,"read":false},{"id":1414,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-05 11:00:52","createdAt":null,"type":"MSG","title":"Hello","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"Hôm nay KPI 10 tr nhé","sender":null,"read":false},{"id":1412,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-05 10:58:53","createdAt":null,"type":"MSG","title":"Hello Trang","fileUrl":null,"contentType":{"id":2,"value":"Hình ảnh"},"receivers":[],"content":null,"sender":null,"read":false},{"id":1410,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-05 10:57:43","createdAt":null,"type":"MSG","title":"Hello Trang","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"Chúc Trang buổi sáng vui vẻ","sender":null,"read":false},{"id":1408,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-05 10:54:59","createdAt":null,"type":"MSG","title":"Thông báo push Sale tháng 4","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[],"content":"Tháng 4 này KPI mọi người là 100tr nhé","sender":null,"read":false},{"id":1402,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-04-05 10:05:34","createdAt":null,"type":"MSG","title":"Cập nhật lại thông tin lương","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[{"id":221,"name":"Trang DH","username":"trangdh","identify":"123456789","doj":"1/1/21, 12:00 AM","dob":"1/1/90, 12:00 AM","code":"DS000777","phone":null,"email":"trangdh12@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":null,"branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"F","address":"184 Lê Đại Hành, quận 11","branchName":null,"active":false,"teamSales":[{"id":814,"label":null,"teamCode":"HCM1-DS1-FICO1-1","level":null,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-1","roleName":"FS-Sales Agent","child":null}]}],"content":"Cập nhật lại thông tin lương","sender":null,"read":false},{"id":1363,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-03-30 11:37:40","createdAt":null,"type":"MSG","title":"test","fileUrl":null,"contentType":{"id":1,"value":"Text"},"receivers":[{"id":203,"name":"TEST SALE","username":"DS000799","identify":"123456789","doj":"12/28/21, 12:00 AM","dob":"4/1/88, 12:00 AM","code":"DS000799","phone":null,"email":"demo@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":null,"branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"M","address":"184 Le Dai Hanh","branchName":null,"active":false,"teamSales":[{"id":815,"label":null,"teamCode":"HCM1-DS1-FICO1-2","level":null,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-2","roleName":"FS-Sales Agent","child":null}]}],"content":"testtest","sender":null,"read":false},{"id":1243,"code":null,"leadId":null,"status":null,"f1Status":null,"f1Stage":null,"idFinnone":null,"username":null,"updatedAt":"2022-02-10 10:51:31","createdAt":null,"type":"MSG","title":"test","fileUrl":null,"contentType":{"id":3,"value":"PDF"},"receivers":[],"content":null,"sender":null,"read":false}],"message":"OK","code":200,"total":16,"page":0}</t>
+  </si>
+  <si>
+    <t>activity/list-content-type</t>
+  </si>
+  <si>
+    <t>Get List Content Type</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:10:17","success":true,"data":[{"id":1,"value":"Text"},{"id":2,"value":"Hình ảnh"},{"id":3,"value":"PDF"}],"message":"OK","code":200}</t>
+  </si>
+  <si>
+    <t>user/get-subordinates?limit=10</t>
+  </si>
+  <si>
+    <t>Get Subordinates</t>
+  </si>
+  <si>
+    <t>limit=10</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:10:17","success":true,"data":[{"id":203,"name":"TEST SALE","username":"DS000799","identify":"123456789","doj":"12/28/21, 12:00 AM","dob":"4/1/88, 12:00 AM","code":"DS000799","phone":null,"email":"demo@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":null,"branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"M","address":"184 Le Dai Hanh","branchName":null,"active":false,"teamSales":[{"id":815,"label":null,"teamCode":"HCM1-DS1-FICO1-2","level":null,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-2","roleName":"FS-Sales Agent","child":null}]},{"id":221,"name":"Trang DH","username":"trangdh","identify":"123456789","doj":"1/1/21, 12:00 AM","dob":"1/1/90, 12:00 AM","code":"DS000777","phone":null,"email":"trangdh12@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":null,"branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"F","address":"184 Lê Đại Hành, quận 11","branchName":null,"active":false,"teamSales":[{"id":814,"label":null,"teamCode":"HCM1-DS1-FICO1-1","level":null,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-1","roleName":"FS-Sales Agent","child":null}]}],"message":"OK","code":200,"total":2,"page":0}</t>
+  </si>
+  <si>
+    <t>activity/send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send </t>
+  </si>
+  <si>
+    <t>{"fileUrl":"","title":"abc","content":"xyz","contentType":1,"receivers":[203]}</t>
+  </si>
+  <si>
+    <t>applications?page=0&amp;limit=20&amp;tab=New</t>
+  </si>
+  <si>
+    <t>page: 0
+limit: 20
+tab: New</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:23:03","success":true,"data":[{"id":"202204050001","appIdFinnone":null,"f1Stage":null,"status":null,"f1Status":null,"schemeValue":null,"schemeCode":"pl14_hdnew","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202204050001","fullName":"Thomas Nguyen","identify":"215315356","citizenIdentity":null,"dob":"1994-01-01","gender":"1","phone":931800857,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":18,"income":12000000,"cityCode":"820000","cityName":"Bình Định","districtCode":"820003","districtName":"Hoài Nhơn","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-04-05 03:09:43","updatedAt":"2022-04-05 03:36:02","reason":null,"noteLeader":null,"documentGroups":[]},"saleName":"Trang DH","noteLeader":null,"saleDsaCode":"DS000777","saleBranchName":null,"createdAt":"2022-04-05 03:13:16","updatedAt":"2022-04-05 03:13:16","sale":{"id":221,"name":"Trang DH","username":"trangdh","identify":"123456789","doj":"1/1/21, 12:00 AM","dob":"1/1/90, 12:00 AM","code":"DS000777","phone":null,"email":"trangdh12@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"F","address":"184 Lê Đại Hành, quận 11","branchName":null,"active":true,"teamSales":[{"id":814,"label":"HCM1-DS1-FICO1-1","teamCode":"HCM1-DS1-FICO1-1","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-1","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202202170002","appIdFinnone":"APPL00278195","f1Stage":"LEAD_DETAILS","status":"F1_ERROR","f1Status":"RESPONSE_QUERY_UPLOADING","schemeValue":null,"schemeCode":"sv02_silver","branchCode":"HCM DSA","productCode":"STUDENT","lead":{"id":"202202170002","fullName":"học sinh","identify":"099363458","citizenIdentity":null,"dob":"2000-01-01","gender":"1","phone":909734041,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":12,"income":10000000,"cityCode":"700000","cityName":"Hồ Chí Minh","districtCode":"700014","districtName":"District 10","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-02-17 10:41:50","updatedAt":"2022-02-17 10:47:31","reason":null,"noteLeader":null,"documentGroups":[]},"saleName":"TEST SALE","noteLeader":null,"saleDsaCode":"DS000799","saleBranchName":null,"createdAt":"2022-02-17 10:44:32","updatedAt":"2022-02-28 09:00:04","sale":{"id":203,"name":"TEST SALE","username":"DS000799","identify":"123456789","doj":"12/28/21, 12:00 AM","dob":"4/1/88, 12:00 AM","code":"DS000799","phone":null,"email":"demo@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"M","address":"184 Le Dai Hanh","branchName":null,"active":true,"teamSales":[{"id":815,"label":"HCM1-DS1-FICO1-2","teamCode":"HCM1-DS1-FICO1-2","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-2","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202202170001","appIdFinnone":"APPL00278194","f1Stage":"LEAD_DETAILS","status":"F1_OTHER","f1Status":"RETURN","schemeValue":null,"schemeCode":"pl08_vay_plus","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202202170001","fullName":"nguyễn ngọc gold","identify":null,"citizenIdentity":"024931748999","dob":"1992-09-29","gender":"1","phone":903624886,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":6,"income":15000000,"cityCode":"700000","cityName":"Hồ Chí Minh","districtCode":"700013","districtName":"District 1","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-02-17 10:33:23","updatedAt":"2022-02-17 10:47:09","reason":null,"noteLeader":null,"documentGroups":[]},"saleName":"TEST SALE","noteLeader":null,"saleDsaCode":"DS000799","saleBranchName":null,"createdAt":"2022-02-17 10:40:18","updatedAt":"2022-02-21 11:28:14","sale":{"id":203,"name":"TEST SALE","username":"DS000799","identify":"123456789","doj":"12/28/21, 12:00 AM","dob":"4/1/88, 12:00 AM","code":"DS000799","phone":null,"email":"demo@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"M","address":"184 Le Dai Hanh","branchName":null,"active":true,"teamSales":[{"id":815,"label":"HCM1-DS1-FICO1-2","teamCode":"HCM1-DS1-FICO1-2","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-2","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202202100001","appIdFinnone":null,"f1Stage":null,"status":null,"f1Status":null,"schemeValue":null,"schemeCode":"pl01_gold","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202201210021","fullName":"fg chh","identify":null,"citizenIdentity":"045565655585","dob":"2000-01-01","gender":"1","phone":686868685,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":12,"income":20000000,"cityCode":"700000","cityName":"Hồ Chí Minh","districtCode":"700011","districtName":"Tân Bình","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-01-21 10:44:51","updatedAt":"2022-03-30 04:32:58","reason":null,"noteLeader":null,"documentGroups":[]},"saleName":"TEST SALE","noteLeader":null,"saleDsaCode":"DS000799","saleBranchName":null,"createdAt":"2022-02-10 04:24:12","updatedAt":"2022-02-10 04:24:12","sale":{"id":203,"name":"TEST SALE","username":"DS000799","identify":"123456789","doj":"12/28/21, 12:00 AM","dob":"4/1/88, 12:00 AM","code":"DS000799","phone":null,"email":"demo@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"M","address":"184 Le Dai Hanh","branchName":null,"active":true,"teamSales":[{"id":815,"label":"HCM1-DS1-FICO1-2","teamCode":"HCM1-DS1-FICO1-2","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-2","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202201220003","appIdFinnone":"APPL00278001","f1Stage":"LEAD_DETAILS","status":"F1_OTHER","f1Status":"PRE_APPROVAL","schemeValue":null,"schemeCode":"pl14_hdnew","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202201220007","fullName":"nguyễn thị ngũ","identify":null,"citizenIdentity":"001065014663","dob":"2000-01-01","gender":"2","phone":933919290,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":6,"income":20000000,"cityCode":"670000","cityName":"Lâm Đồng","districtCode":"670001","districtName":"Bảo Lâm","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-01-22 05:09:23","updatedAt":"2022-01-25 03:15:02","reason":null,"noteLeader":null,"documentGroups":[]},"saleName":"Trang DH","noteLeader":null,"saleDsaCode":"DS000777","saleBranchName":null,"createdAt":"2022-01-22 05:11:45","updatedAt":"2022-01-25 03:26:02","sale":{"id":221,"name":"Trang DH","username":"trangdh","identify":"123456789","doj":"1/1/21, 12:00 AM","dob":"1/1/90, 12:00 AM","code":"DS000777","phone":null,"email":"trangdh12@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"F","address":"184 Lê Đại Hành, quận 11","branchName":null,"active":true,"teamSales":[{"id":814,"label":"HCM1-DS1-FICO1-1","teamCode":"HCM1-DS1-FICO1-1","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-1","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202201220002","appIdFinnone":null,"f1Stage":null,"status":null,"f1Status":null,"schemeValue":null,"schemeCode":"pl07_hđ3","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202201220005","fullName":"nguyễn thị ba","identify":null,"citizenIdentity":"001197016586","dob":"2000-01-01","gender":"1","phone":935989090,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":24,"income":30000000,"cityCode":"850000","cityName":"Long An","districtCode":"850001","districtName":"Bến Lức","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-01-22 04:38:20","updatedAt":"2022-01-25 03:12:11","reason":null,"noteLeader":null,"documentGroups":[]},"saleName":"Trang DH","noteLeader":null,"saleDsaCode":"DS000777","saleBranchName":null,"createdAt":"2022-01-22 05:05:53","updatedAt":"2022-01-22 05:05:53","sale":{"id":221,"name":"Trang DH","username":"trangdh","identify":"123456789","doj":"1/1/21, 12:00 AM","dob":"1/1/90, 12:00 AM","code":"DS000777","phone":null,"email":"trangdh12@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"F","address":"184 Lê Đại Hành, quận 11","branchName":null,"active":true,"teamSales":[{"id":814,"label":"HCM1-DS1-FICO1-1","teamCode":"HCM1-DS1-FICO1-1","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-1","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202201220001","appIdFinnone":null,"f1Stage":null,"status":null,"f1Status":null,"schemeValue":null,"schemeCode":"pl08_vay_plus","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202201220002","fullName":"nguyễn thị một","identify":"285118784","citizenIdentity":null,"dob":"2000-01-01","gender":"2","phone":933979790,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":18,"income":50000000,"cityCode":"790000","cityName":"Bà Rịa - Vũng Tàu","districtCode":"790001","districtName":"Bà Rịa","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-01-22 04:18:06","updatedAt":"2022-01-22 04:54:12","reason":null,"noteLeader":null,"documentGroups":[]},"saleName":"Trang DH","noteLeader":null,"saleDsaCode":"DS000777","saleBranchName":null,"createdAt":"2022-01-22 04:36:54","updatedAt":"2022-01-22 04:36:54","sale":{"id":221,"name":"Trang DH","username":"trangdh","identify":"123456789","doj":"1/1/21, 12:00 AM","dob":"1/1/90, 12:00 AM","code":"DS000777","phone":null,"email":"trangdh12@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"F","address":"184 Lê Đại Hành, quận 11","branchName":null,"active":true,"teamSales":[{"id":814,"label":"HCM1-DS1-FICO1-1","teamCode":"HCM1-DS1-FICO1-1","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-1","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202201120010","appIdFinnone":"APPL00277895","f1Stage":"LEAD_DETAILS","status":"F1_RAISE_QUERY_SUBMITTED","f1Status":"T_RETURN","schemeValue":null,"schemeCode":"pl08_vay_plus","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202201120013","fullName":"hddh dheh","identify":"245454545","citizenIdentity":null,"dob":"1991-01-03","gender":"1","phone":645454664,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":6,"income":20000000,"cityCode":"700000","cityName":"Hồ Chí Minh","districtCode":"700011","districtName":"Tân Bình","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-01-12 12:06:42","updatedAt":"2022-01-12 12:08:14","reason":"bdhd dhdh","noteLeader":"hdhe hdhe","documentGroups":[]},"saleName":"TEST SALE","noteLeader":null,"saleDsaCode":"DS000799","saleBranchName":null,"createdAt":"2022-01-12 12:07:37","updatedAt":"2022-02-08 11:16:22","sale":{"id":203,"name":"TEST SALE","username":"DS000799","identify":"123456789","doj":"12/28/21, 12:00 AM","dob":"4/1/88, 12:00 AM","code":"DS000799","phone":null,"email":"demo@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"M","address":"184 Le Dai Hanh","branchName":null,"active":true,"teamSales":[{"id":815,"label":"HCM1-DS1-FICO1-2","teamCode":"HCM1-DS1-FICO1-2","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-2","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202201120009","appIdFinnone":null,"f1Stage":null,"status":null,"f1Status":null,"schemeValue":null,"schemeCode":"pl08_vay_plus","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202201120012","fullName":"hdhe he hdhe","identify":"284545545","citizenIdentity":null,"dob":"1988-01-01","gender":"1","phone":466465646,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":6,"income":20000000,"cityCode":"700000","cityName":"Hồ Chí Minh","districtCode":"700011","districtName":"Tân Bình","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-01-12 11:57:10","updatedAt":"2022-01-12 12:01:22","reason":"gdhd dhdh","noteLeader":null,"documentGroups":[]},"saleName":"TEST SALE","noteLeader":null,"saleDsaCode":"DS000799","saleBranchName":null,"createdAt":"2022-01-12 12:00:53","updatedAt":"2022-01-12 12:00:53","sale":{"id":203,"name":"TEST SALE","username":"DS000799","identify":"123456789","doj":"12/28/21, 12:00 AM","dob":"4/1/88, 12:00 AM","code":"DS000799","phone":null,"email":"demo@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"M","address":"184 Le Dai Hanh","branchName":null,"active":true,"teamSales":[{"id":815,"label":"HCM1-DS1-FICO1-2","teamCode":"HCM1-DS1-FICO1-2","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-2","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202201120008","appIdFinnone":null,"f1Stage":null,"status":null,"f1Status":null,"schemeValue":null,"schemeCode":"pl08_vay_plus","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202201120011","fullName":"hdhe hehe","identify":"248454545","citizenIdentity":null,"dob":"1991-01-03","gender":"1","phone":764646466,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":6,"income":20000000,"cityCode":"700000","cityName":"Hồ Chí Minh","districtCode":"700011","districtName":"Tân Bình","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-01-12 11:53:45","updatedAt":"2022-01-12 11:55:20","reason":"bdhd hêh","noteLeader":null,"documentGroups":[]},"saleName":"TEST SALE","noteLeader":null,"saleDsaCode":"DS000799","saleBranchName":null,"createdAt":"2022-01-12 11:54:41","updatedAt":"2022-01-12 11:54:41","sale":{"id":203,"name":"TEST SALE","username":"DS000799","identify":"123456789","doj":"12/28/21, 12:00 AM","dob":"4/1/88, 12:00 AM","code":"DS000799","phone":null,"email":"demo@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"M","address":"184 Le Dai Hanh","branchName":null,"active":true,"teamSales":[{"id":815,"label":"HCM1-DS1-FICO1-2","teamCode":"HCM1-DS1-FICO1-2","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-2","roleName":"FS-Sales Agent","child":null}]},"documentGroups":null},{"id":"202201120007","appIdFinnone":null,"f1Stage":null,"status":null,"f1Status":null,"schemeValue":null,"schemeCode":"pl08_vay_plus","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202201120010","fullName":"hdhe hehe","identify":"245454545","citizenIdentity":null,"dob":"1988-01-07","gender":"1","phone":646464646,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":6,"income":20000000,"cityCode":"700000","cityName":"Hồ Chí</t>
+  </si>
+  <si>
+    <t>Get List Application</t>
+  </si>
+  <si>
+    <t>applications/list-tabs</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:22:56","success":true,"data":["Revising","Processing","Reject","Disbursal","New","Return"],"message":"OK","code":200}</t>
+  </si>
+  <si>
+    <t>Get List Tabs</t>
+  </si>
+  <si>
+    <t>applications/202204050001/documents</t>
+  </si>
+  <si>
+    <t>Get Documents</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:28:54","success":true,"data":{"tpf_cable_tv_bills":[{"id":1326,"path":"https://fico-portaltest.tpb.vn/mstest/images/[95][tpf_cable_tv_bills][1649128352.jpg][2.0].jpg","name":"[95][tpf_cable_tv_bills][1649128352.jpg][2.0].jpg","pdfCode":"tpf_cable_tv_bills","replaced":false,"index":1,"batch":7,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}],"tpf_family_book":[{"id":1323,"path":"https://fico-portaltest.tpb.vn/mstest/images/[84][tpf_family_book][1649128349.jpg][8.0].jpg","name":"[84][tpf_family_book][1649128349.jpg][8.0].jpg","pdfCode":"tpf_family_book","replaced":false,"index":1,"batch":6,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}],"tpf_customer_photograph":[{"id":1328,"path":"https://fico-portaltest.tpb.vn/mstest/images/[98][tpf_customer_photograph][1649128356.jpg][2.0].jpg","name":"[98][tpf_customer_photograph][1649128356.jpg][2.0].jpg","pdfCode":"tpf_customer_photograph","replaced":false,"index":1,"batch":4,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}],"tpf_phone_bills":[{"id":1322,"path":"https://fico-portaltest.tpb.vn/mstest/images/[94][tpf_phone_bills][1649128347.jpg][2.0].jpg","name":"[94][tpf_phone_bills][1649128347.jpg][2.0].jpg","pdfCode":"tpf_phone_bills","replaced":false,"index":1,"batch":5,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}],"tpf_map_to_customer_house":[{"id":1324,"path":"https://fico-portaltest.tpb.vn/mstest/images/[99][tpf_map_to_customer_house][1649128350.jpg][2.0].jpg","name":"[99][tpf_map_to_customer_house][1649128350.jpg][2.0].jpg","pdfCode":"tpf_map_to_customer_house","replaced":false,"index":1,"batch":12,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}],"tpf_electricity_bills":[{"id":1325,"path":"https://fico-portaltest.tpb.vn/mstest/images/[91][tpf_electricity_bills][1649128351.jpg][2.0].jpg","name":"[91][tpf_electricity_bills][1649128351.jpg][2.0].jpg","pdfCode":"tpf_electricity_bills","replaced":false,"index":1,"batch":10,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}],"tpf_application_cum_credit_contract_(acca)":[{"id":1327,"path":"https://fico-portaltest.tpb.vn/mstest/images/[82][tpf_application_cum_credit_contract_(acca)][1649128354.jpg][2.0].jpg","name":"[82][tpf_application_cum_credit_contract_(acca)][1649128354.jpg][2.0].jpg","pdfCode":"tpf_application_cum_credit_contract_(acca)","replaced":false,"index":1,"batch":9,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}],"tpf_internet_bills":[{"id":1321,"path":"https://fico-portaltest.tpb.vn/mstest/images/[93][tpf_internet_bills][1649128345.jpg][2.0].jpg","name":"[93][tpf_internet_bills][1649128345.jpg][2.0].jpg","pdfCode":"tpf_internet_bills","replaced":false,"index":1,"batch":3,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]},"message":"OK","code":200,"total":12,"page":0}</t>
+  </si>
+  <si>
+    <t>applications/202204050001/messages?limit=5</t>
+  </si>
+  <si>
+    <t>limit: 5</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:28:54","success":true,"data":[],"message":"OK","code":200,"total":0,"page":0}</t>
+  </si>
+  <si>
+    <t>Get message</t>
+  </si>
+  <si>
+    <t>applications/202204050001/f1-documents?limit=5</t>
+  </si>
+  <si>
+    <t>Get F1 Documents</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:28:54","success":true,"data":[{"id":1324,"path":"https://fico-portaltest.tpb.vn/mstest/images/[99][tpf_map_to_customer_house][1649128350.jpg][2.0].jpg","name":"[99][tpf_map_to_customer_house][1649128350.jpg][2.0].jpg","pdfCode":"tpf_map_to_customer_house","replaced":false,"index":1,"batch":12,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"},{"id":1329,"path":"https://fico-portaltest.tpb.vn/mstest/images/[100][tpf_customer_signature][1649128357.jpg][0.6].jpg","name":"[100][tpf_customer_signature][1649128357.jpg][0.6].jpg","pdfCode":"tpf_customer_signature","replaced":false,"index":1,"batch":11,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"},{"id":1325,"path":"https://fico-portaltest.tpb.vn/mstest/images/[91][tpf_electricity_bills][1649128351.jpg][2.0].jpg","name":"[91][tpf_electricity_bills][1649128351.jpg][2.0].jpg","pdfCode":"tpf_electricity_bills","replaced":false,"index":1,"batch":10,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"},{"id":1327,"path":"https://fico-portaltest.tpb.vn/mstest/images/[82][tpf_application_cum_credit_contract_(acca)][1649128354.jpg][2.0].jpg","name":"[82][tpf_application_cum_credit_contract_(acca)][1649128354.jpg][2.0].jpg","pdfCode":"tpf_application_cum_credit_contract_(acca)","replaced":false,"index":1,"batch":9,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"},{"id":1331,"path":"https://fico-portaltest.tpb.vn/mstest/images/[83][tpf_id_card][1649128359.jpg][2.0].jpg","name":"[83][tpf_id_card][1649128359.jpg][2.0].jpg","pdfCode":"tpf_id_card","replaced":false,"index":1,"batch":8,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}],"message":"OK","code":200,"total":12,"page":0}</t>
+  </si>
+  <si>
+    <t>applications/202204050001</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:28:55","success":true,"data":{"id":"202204050001","appIdFinnone":null,"f1Stage":null,"status":null,"f1Status":null,"schemeValue":"pl14_hdnew","schemeCode":"pl14_hdnew","branchCode":"HCM DSA","productCode":"CASHLOAN","lead":{"id":"202204050001","fullName":"Thomas Nguyen","identify":"215315356","citizenIdentity":null,"dob":"1994-01-01","gender":"1","phone":931800857,"bankNumber":"5555555555555555","status":"PRE_APPROVED","tenure":18,"income":12000000,"cityCode":"820000","cityName":"Bình Định","districtCode":"820003","districtName":"Hoài Nhơn","schemeName":null,"schemeCode":null,"saleName":null,"createdAt":"2022-04-05 03:09:43","updatedAt":"2022-04-05 03:36:02","reason":null,"noteLeader":null,"documentGroups":[]},"saleName":null,"noteLeader":null,"saleDsaCode":null,"saleBranchName":null,"createdAt":"2022-04-05 03:13:16","updatedAt":"2022-04-05 03:13:16","sale":{"id":221,"name":"Trang DH","username":"trangdh","identify":"123456789","doj":"1/1/21, 12:00 AM","dob":"1/1/90, 12:00 AM","code":"DS000777","phone":null,"email":"trangdh12@tpb.com.vn","role":{"id":1,"name":"SALE_AGENT","code":"DSA","level":1,"permissions":[{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":6,"code":"LEAD","name":"lead","description":"lead","colorCode":"#7d7d7d","icon":"icons/fi-rr-comment.svg","perPriority":2},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":2,"code":"PROCESSING_APP","name":"processing app","description":"processing app","colorCode":"#ea5d3d","icon":"icons/fi-rr-spinner-alt.svg","perPriority":3},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":1,"code":"CREATE_APP","name":"create app","description":"create app","colorCode":"#6d80d3","icon":"icons/fi-rr-file-add.svg","perPriority":1},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":61,"code":"CHECK_BANK","name":"check bank","description":"check bank","colorCode":"#4689b8","icon":"icons/office-building.svg","perPriority":8},{"createdAt":"2021-10-11 18:54:56","updatedAt":"2021-10-11 18:54:59","id":21,"code":"CHECK_CAT","name":"check cat","description":"check cat","colorCode":"#6d80d3","icon":"icons/office-building.svg","perPriority":7},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":5,"code":"STATISTIC","name":"statistic","description":"statistic","colorCode":"#ff8284","icon":"icons/fi-rr-stats.svg","perPriority":5},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":4,"code":"COLLECTION","name":"collection","description":"collection","colorCode":"#31a87a","icon":"icons/fi-rr-calendar.svg","perPriority":4},{"createdAt":"2021-06-14 09:51:00","updatedAt":"2021-06-14 09:51:00","id":3,"code":"EMI","name":"emi","description":"EMI","colorCode":"#4689b8","icon":"icons/fi-rr-calculator.svg","perPriority":6}],"multipleTeamUnit":false},"roleName":"FS-Sales Agent","branches":[{"code":"HCM","name":"HCM DSA"}],"gender":"F","address":"184 Lê Đại Hành, quận 11","branchName":null,"active":true,"teamSales":[{"id":814,"label":"HCM1-DS1-FICO1-1","teamCode":"HCM1-DS1-FICO1-1","level":1,"region":null,"parent":"HCM1-DS1-FICO1","teamName":"HCM1-DS1-FICO1-1","roleName":"FS-Sales Agent","child":null}]},"documentGroups":[{"id":98,"title":"Hình chụp với khách hàng","name":"ẢNH SELFIE","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_customer_photograph","value":"tpf_customer_photograph","minCount":1,"maxCount":20,"imagePaths":[{"id":1328,"path":"https://fico-portaltest.tpb.vn/mstest/images/[98][tpf_customer_photograph][1649128356.jpg][2.0].jpg","name":"[98][tpf_customer_photograph][1649128356.jpg][2.0].jpg","pdfCode":"tpf_customer_photograph","replaced":false,"index":1,"batch":4,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":94,"title":"Hóa đơn di động trả sau","name":"HÓA ĐƠN","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_phone_bills","value":"tpf_phone_bills","minCount":1,"maxCount":20,"imagePaths":[{"id":1322,"path":"https://fico-portaltest.tpb.vn/mstest/images/[94][tpf_phone_bills][1649128347.jpg][2.0].jpg","name":"[94][tpf_phone_bills][1649128347.jpg][2.0].jpg","pdfCode":"tpf_phone_bills","replaced":false,"index":1,"batch":5,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":91,"title":"Hóa đơn điện","name":"HÓA ĐƠN","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_electricity_bills","value":"tpf_electricity_bills","minCount":1,"maxCount":20,"imagePaths":[{"id":1325,"path":"https://fico-portaltest.tpb.vn/mstest/images/[91][tpf_electricity_bills][1649128351.jpg][2.0].jpg","name":"[91][tpf_electricity_bills][1649128351.jpg][2.0].jpg","pdfCode":"tpf_electricity_bills","replaced":false,"index":1,"batch":10,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":83,"title":"CMND/CCCD","name":"CMND/CCCD","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_id_card","value":"tpf_id_card","minCount":1,"maxCount":20,"imagePaths":[{"id":1331,"path":"https://fico-portaltest.tpb.vn/mstest/images/[83][tpf_id_card][1649128359.jpg][2.0].jpg","name":"[83][tpf_id_card][1649128359.jpg][2.0].jpg","pdfCode":"tpf_id_card","replaced":false,"index":1,"batch":8,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":92,"title":"Hóa đơn nước","name":"HÓA ĐƠN","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_water_bill","value":"tpf_water_bill","minCount":1,"maxCount":20,"imagePaths":[{"id":1330,"path":"https://fico-portaltest.tpb.vn/mstest/images/[92][tpf_water_bill][1649128358.jpg][2.0].jpg","name":"[92][tpf_water_bill][1649128358.jpg][2.0].jpg","pdfCode":"tpf_water_bill","replaced":false,"index":1,"batch":1,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":99,"title":"Bản đồ địa chỉ hiện tại của khách hàng","name":"ẢNH/BẢN ĐỒ","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_map_to_customer_house","value":"tpf_map_to_customer_house","minCount":1,"maxCount":20,"imagePaths":[{"id":1324,"path":"https://fico-portaltest.tpb.vn/mstest/images/[99][tpf_map_to_customer_house][1649128350.jpg][2.0].jpg","name":"[99][tpf_map_to_customer_house][1649128350.jpg][2.0].jpg","pdfCode":"tpf_map_to_customer_house","replaced":false,"index":1,"batch":12,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":95,"title":"Hóa đơn truyền hình cáp","name":"HÓA ĐƠN","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_cable_tv_bills","value":"tpf_cable_tv_bills","minCount":1,"maxCount":20,"imagePaths":[{"id":1326,"path":"https://fico-portaltest.tpb.vn/mstest/images/[95][tpf_cable_tv_bills][1649128352.jpg][2.0].jpg","name":"[95][tpf_cable_tv_bills][1649128352.jpg][2.0].jpg","pdfCode":"tpf_cable_tv_bills","replaced":false,"index":1,"batch":7,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":85,"title":"Sổ hộ khẩu photo công chứng","name":"HK","sizeLimit":8.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_notarization_of_family_book","value":"tpf_notarization_of_family_book","minCount":1,"maxCount":20,"imagePaths":[{"id":1332,"path":"https://fico-portaltest.tpb.vn/mstest/images/[85][tpf_notarization_of_family_book][1649128361.jpg][8.0].jpg","name":"[85][tpf_notarization_of_family_book][1649128361.jpg][8.0].jpg","pdfCode":"tpf_notarization_of_family_book","replaced":false,"index":1,"batch":2,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":84,"title":"Sổ hộ khẩu","name":"HK","sizeLimit":8.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_family_book","value":"tpf_family_book","minCount":1,"maxCount":20,"imagePaths":[{"id":1323,"path":"https://fico-portaltest.tpb.vn/mstest/images/[84][tpf_family_book][1649128349.jpg][8.0].jpg","name":"[84][tpf_family_book][1649128349.jpg][8.0].jpg","pdfCode":"tpf_family_book","replaced":false,"index":1,"batch":6,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":100,"title":"Chữ ký khách hàng","name":"CHỮ KÝ KHÁCH HÀNG","sizeLimit":0.6,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_customer_signature","value":"tpf_customer_signature","minCount":1,"maxCount":20,"imagePaths":[{"id":1329,"path":"https://fico-portaltest.tpb.vn/mstest/images/[100][tpf_customer_signature][1649128357.jpg][0.6].jpg","name":"[100][tpf_customer_signature][1649128357.jpg][0.6].jpg","pdfCode":"tpf_customer_signature","replaced":false,"index":1,"batch":11,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":93,"title":"Hóa đơn internet","name":"HÓA ĐƠN","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_internet_bills","value":"tpf_internet_bills","minCount":1,"maxCount":20,"imagePaths":[{"id":1321,"path":"https://fico-portaltest.tpb.vn/mstest/images/[93][tpf_internet_bills][1649128345.jpg][2.0].jpg","name":"[93][tpf_internet_bills][1649128345.jpg][2.0].jpg","pdfCode":"tpf_internet_bills","replaced":false,"index":1,"batch":3,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]},{"id":82,"title":"ACCA (Đơn đề nghị vay vốn kiêm hợp đồng tín dụng) ","name":"ACCA","sizeLimit":2.0,"isUpload":false,"isRequired":true,"width":60,"height":60,"documents":[{"code":"tpf_application_cum_credit_contract_(acca)","value":"tpf_application_cum_credit_contract_(acca)","minCount":1,"maxCount":20,"imagePaths":[{"id":1327,"path":"https://fico-portaltest.tpb.vn/mstest/images/[82][tpf_application_cum_credit_contract_(acca)][1649128354.jpg][2.0].jpg","name":"[82][tpf_application_cum_credit_contract_(acca)][1649128354.jpg][2.0].jpg","pdfCode":"tpf_application_cum_credit_contract_(acca)","replaced":false,"index":1,"batch":9,"createdAt":"2022-04-05 10:13:16","schemeCode":"pl14_hdnew","requestType":"createApp"}]}]}]},"message":"OK","code":200}</t>
+  </si>
+  <si>
+    <t>device?limit=10&amp;page=0</t>
+  </si>
+  <si>
+    <t>limit: 10
+page: 0</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2022-04-28 08:39:30","success":true,"data":{"total":8,"last":true,"data":[{"id":283,"deviceId":"34F8AC87-52AC-4F3A-83E8-7BE8CEE75D34","deviceToken":"dmLlaYY5qEMLsrWk_9khWA:APA91bFjC38AoWskMoq2nEP26iHvKpoG1vO7-cYMyKoy0Qyrj8ejGzzbVhJM9paFCyTiK3KaMnAV_oJf6hr7foV2jmQudy4CMbKDjOvPa43yGSbn1K_fE2VcAa5-jXCXOcndelGbfO55","appVersion":"null","osName":"null","deviceBrand":"null","osVersion":"null","status":1,"userId":322,"userName":"Đào Thị Thúy Diễm"},{"id":282,"deviceId":"34F8AC87-52AC-4F3A-83E8-7BE8CEE75D344","deviceToken":null,"appVersion":"a","osName":"b","deviceBrand":"c","osVersion":"1","status":1,"userId":318,"userName":"Trịnh Trường Long"},{"id":281,"deviceId":"A51C74A2-4B1E-43E7-BC0B-AC88C019B2A1","deviceToken":"e19AriT8pE1UmhaMKUsM0a:APA91bEYINcbcjEN-KlYE6OjiEhYgCwpG2zLf2eNu69ZYns2xiG5QONrzRw8gxOReowrMIVVibTrHcYOUYa9eDCgkxytTwrf4_-iRtdgjUcecUWN9tBEbG5hqBtVSWBl-wpOJTC9QYnP","appVersion":"1.0.0","osName":"iOS","deviceBrand":"osBrand","osVersion":"14.3","status":1,"userId":262,"userName":"Tran TeamLead"},{"id":261,"deviceId":"7C71F186-289D-415A-937D-4105BE5511C8","deviceToken":"c4MfgsFfyE4woGo4l-WMiI:APA91bHniQl2-fPwTYINc7wCWAJ5umfiJL7BobLlkRzDL9gEWjPx_8UR3nlLL01POPHd5rtayG2xHVEoZugWVhAELZiNZnDrLTFEu_Idxd1NgS-kRqiSgy0NTdfVICEErJdVnmWxhCbF","appVersion":"1.0.0","osName":"iOS","deviceBrand":"osBrand","osVersion":"15.0","status":1,"userId":261,"userName":"simu lator"},{"id":242,"deviceId":"69C310FF-6BAF-4765-8FA3-4FD8F3642124","deviceToken":"eW3TZ0Lai018udYZ07hSb_:APA91bGi1LrC4eQADfpzUoxDICFng-CJfFH4Utq9tm6LVHicqCLa6IiPd0f-TOUG42qqEaB7e8wFieJ2YELQmeGqD7QONlhPTmIDXVFBwSzgOtwRee_ObS4fHbPVowN-GFhFvPZBzKHz","appVersion":"1.0.0","osName":"iOS","deviceBrand":"osBrand","osVersion":"14.8.1","status":1,"userId":221,"userName":"Trang DH"},{"id":241,"deviceId":"79bbd9dd1bf51931","deviceToken":"fWfmHSDdSqa7uVIj23EFGe:APA91bGHXzAymFK-X5RoNmUGvNNY63pqJMPAbv9G-jexofzEopD5jidCzNYeOhYKD_LjTE9ezu3jVfDeVao88jCvPlWcY58y74CXOiLgfpre62Zua0mCF1WywuGMMHj0yGBS9x517NTk","appVersion":"1.0.0","osName":"iOS","deviceBrand":"osBrand","osVersion":"14.5.1","status":1,"userId":206,"userName":"testlead"},{"id":222,"deviceId":"C5D245D4-083C-4458-92CC-909EF6F9CE0E","deviceToken":"ev6YDXw0_kocoexmSGTDyG:APA91bGJ0VLQb64HUV_CZf32Gle2_OSP0OkvPC2rSUx_LtrqXe_mA_IE9EYhGhHwsYE-y5M4vwGxy2Pwat3EEF8yXOHJ9KWneHM8iYky6wl7rM1i9SrnqE_UBcmvUMxk9X9-p1wrImcy","appVersion":"1.0.0","osName":"iOS","deviceBrand":"osBrand","osVersion":"15.1","status":1,"userId":205,"userName":"teamlead"},{"id":221,"deviceId":"A51C74A2-4B1E-43E7-BC0B-AC88C019B2A2","deviceToken":"e19AriT8pE1UmhaMKUsM0a:APA91bEYINcbcjEN-KlYE6OjiEhYgCwpG2zLf2eNu69ZYns2xiG5QONrzRw8gxOReowrMIVVibTrHcYOUYa9eDCgkxytTwrf4_-iRtdgjUcecUWN9tBEbG5hqBtVSWBl-wpOJTC9QYnP","appVersion":"1.0.0","osName":"iOS","deviceBrand":"osBrand","osVersion":"14.3","status":1,"userId":204,"userName":"Nguyen Ngoc Tran"}],"totalPages":1,"page":0},"message":"OK","code":200}</t>
+  </si>
+  <si>
+    <t>Get List Device</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,10 +320,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -144,8 +362,28 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +408,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -334,20 +578,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,15 +587,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -373,36 +630,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,225 +1004,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.296875" style="9" customWidth="1"/>
+    <col min="2" max="3" width="21.69921875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="38.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="38" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.69921875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="33.19921875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="32.69921875" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="8"/>
+    </row>
+    <row r="4" spans="1:9" s="47" customFormat="1" ht="21">
+      <c r="A4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="18"/>
+      <c r="B6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="18"/>
+      <c r="B7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="18"/>
+      <c r="B8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="18"/>
+      <c r="B9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" s="53" customFormat="1">
+      <c r="A10" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+    </row>
+    <row r="11" spans="1:9" s="53" customFormat="1">
+      <c r="A11" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" s="53" customFormat="1">
+      <c r="A14" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" s="53" customFormat="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="1:9" s="53" customFormat="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:9" s="53" customFormat="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:9" s="53" customFormat="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="18"/>
+      <c r="B20" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="18"/>
+      <c r="B21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" s="53" customFormat="1">
+      <c r="A23" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:9" s="53" customFormat="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="1:9" s="53" customFormat="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="1:9" s="53" customFormat="1">
+      <c r="A26" s="57"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:9" s="53" customFormat="1">
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="1:9" ht="43.2">
+      <c r="A28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="18"/>
+      <c r="B29" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="18"/>
+      <c r="B31" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="18"/>
+      <c r="B32" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.8">
+      <c r="A34" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="45"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A13:A17"/>
+  <mergeCells count="6">
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A5:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -950,289 +1597,289 @@
       <selection activeCell="A5" sqref="A5:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/src/store/modules/API.xlsx
+++ b/src/store/modules/API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\PC\Desktop\Source\tpb\tpf-msale-ui\src\store\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longzonal/Desktop/SourceWFH/tpf-msale-ui/src/store/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6DCC5B-08EF-4BBF-B9D6-5F19360DBE3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF2A42C-8176-714A-A774-FD92CA39AE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="504" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>API NEW</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Đăng ký</t>
-  </si>
-  <si>
-    <t>Đổi mật khẩu</t>
   </si>
   <si>
     <t>Đăng nhập</t>
@@ -305,13 +302,46 @@
   </si>
   <si>
     <t>Get List Device</t>
+  </si>
+  <si>
+    <t>Bỏ</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu/Update Infor</t>
+  </si>
+  <si>
+    <t>user/update</t>
+  </si>
+  <si>
+    <t>{
+  "address": "string",
+  "branches": [
+    "string"
+  ],
+  "code": "string",	
+  "dob": "string",
+  "doj": "string",
+  "email": "string",
+  "gender": "string",
+  "id": 0, //required
+  "name": "string",
+  "password": "string",
+  "phone": "string",
+  "roleId": 0,
+  "teamIds": [
+    0
+  ]
+}</t>
+  </si>
+  <si>
+    <t>update dynamic, truyền key nào thì server update key đó, tránh lỗi ko truyên key ko update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,6 +412,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -415,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -574,11 +612,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,44 +651,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -651,9 +666,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,23 +687,70 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1007,23 +1066,23 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.296875" style="9" customWidth="1"/>
-    <col min="2" max="3" width="21.69921875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="38.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="9" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="38" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.69921875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="33.19921875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="32.69921875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" style="9" customWidth="1"/>
     <col min="10" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -1032,37 +1091,37 @@
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="4" spans="1:9" s="47" customFormat="1" ht="21">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:9" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1086,8 +1145,8 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
       <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
@@ -1105,106 +1164,116 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="18"/>
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="18"/>
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="62" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" s="53" customFormat="1">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:9" s="41" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-    </row>
-    <row r="11" spans="1:9" s="53" customFormat="1">
-      <c r="A11" s="48" t="s">
+      <c r="B10" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" s="41" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -1213,9 +1282,9 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="35" t="s">
-        <v>47</v>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>29</v>
@@ -1226,366 +1295,370 @@
       <c r="D13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>50</v>
+      <c r="E13" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9" s="53" customFormat="1">
-      <c r="A14" s="56" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-    </row>
-    <row r="15" spans="1:9" s="53" customFormat="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="1:9" s="53" customFormat="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" spans="1:9" s="53" customFormat="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="1:9" s="53" customFormat="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>56</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="18"/>
-      <c r="B20" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>59</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="18"/>
-      <c r="B21" s="27" t="s">
+      <c r="E21" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="30" t="s">
-        <v>68</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" s="53" customFormat="1">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="1:9" s="53" customFormat="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="1:9" s="53" customFormat="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="1:9" s="53" customFormat="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="1:9" s="53" customFormat="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="1:9" ht="43.2">
-      <c r="A28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="63" t="s">
         <v>69</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>70</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="32" t="s">
-        <v>71</v>
+      <c r="H28" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="18"/>
-      <c r="B29" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="27" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>73</v>
+      <c r="D29" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="27" t="s">
-        <v>74</v>
+      <c r="H29" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="32" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>76</v>
+      <c r="D30" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="17"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="18"/>
-      <c r="B31" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="E31" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>80</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="18"/>
-      <c r="B32" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="27" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>80</v>
+      <c r="D32" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="18"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="14"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" ht="28.8">
-      <c r="A34" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="E34" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="I34" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A5:A9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" location="/operations/user-controller/updateUserInfoUsingPOST" display="https://fico-portaltest.tpb.vn/newmsales/swagger-ui.html - /operations/user-controller/updateUserInfoUsingPOST" xr:uid="{30575890-F8B9-2245-9DA3-990164D41716}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1597,24 +1670,24 @@
       <selection activeCell="A5" sqref="A5:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1624,123 +1697,123 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1750,70 +1823,70 @@
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1823,75 +1896,66 @@
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D15:J15"/>
@@ -1902,6 +1966,15 @@
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
